--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/38.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/38.xlsx
@@ -479,13 +479,13 @@
         <v>-14.43380598970762</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.014288881818642</v>
+        <v>-9.053055190532993</v>
       </c>
       <c r="F2" t="n">
-        <v>5.916251832702818</v>
+        <v>5.833717955588576</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.90513445189864</v>
+        <v>-15.84058939888893</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.80073861475222</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.289331979917621</v>
+        <v>-9.331489195067981</v>
       </c>
       <c r="F3" t="n">
-        <v>5.829973556975843</v>
+        <v>5.747544418284336</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.44232154644362</v>
+        <v>-15.37954395431755</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.93011212557403</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.344921897783591</v>
+        <v>-9.390378373250064</v>
       </c>
       <c r="F4" t="n">
-        <v>5.9564713870326</v>
+        <v>5.877289139445841</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.6576736525333</v>
+        <v>-14.60186116551902</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.91113666215229</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.29336759254675</v>
+        <v>-10.33489637716071</v>
       </c>
       <c r="F5" t="n">
-        <v>6.032013974429359</v>
+        <v>5.94971575876627</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.67662812369424</v>
+        <v>-13.63197027870111</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.77758600852014</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.88652746509399</v>
+        <v>-10.92839664958183</v>
       </c>
       <c r="F6" t="n">
-        <v>6.243507034534602</v>
+        <v>6.157333497230361</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.9090787772952</v>
+        <v>-12.87380811343959</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.587916717420619</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.70992857541583</v>
+        <v>-11.74561819296238</v>
       </c>
       <c r="F7" t="n">
-        <v>6.560812086206675</v>
+        <v>6.473329318618261</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.58235717652605</v>
+        <v>-11.55817569317738</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.391880395622051</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.51382215450349</v>
+        <v>-12.54979980271256</v>
       </c>
       <c r="F8" t="n">
-        <v>6.834022261907815</v>
+        <v>6.743580633877171</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.85467389228007</v>
+        <v>-10.83753606786025</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.228702543294644</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.23166002701249</v>
+        <v>-13.26974553597907</v>
       </c>
       <c r="F9" t="n">
-        <v>6.899562329933495</v>
+        <v>6.808230425309614</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.642287372227715</v>
+        <v>-9.64141018793732</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.136057333237437</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.27824562387723</v>
+        <v>-14.31354247233853</v>
       </c>
       <c r="F10" t="n">
-        <v>7.055989164286439</v>
+        <v>6.968427842880975</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.011552590524721</v>
+        <v>-9.015152973806195</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.123889635368273</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.18021364355227</v>
+        <v>-15.21210649327471</v>
       </c>
       <c r="F11" t="n">
-        <v>7.279422404583336</v>
+        <v>7.190473299076649</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.20692584247792</v>
+        <v>-8.22179869850612</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.210116190981966</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.43769005459153</v>
+        <v>-16.4635997219153</v>
       </c>
       <c r="F12" t="n">
-        <v>7.214510767094058</v>
+        <v>7.128599075846651</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.769629835261427</v>
+        <v>-7.788037613056894</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.381064510488707</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.4088247101794</v>
+        <v>-17.42714084185498</v>
       </c>
       <c r="F13" t="n">
-        <v>7.113883327452552</v>
+        <v>7.025798313933418</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.502952718678309</v>
+        <v>-7.519030066567948</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.638796578138412</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.7792353255314</v>
+        <v>-18.79299533581805</v>
       </c>
       <c r="F14" t="n">
-        <v>7.117758649093703</v>
+        <v>7.034753449077159</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.583283905561261</v>
+        <v>-6.606679850739426</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.960543930552144</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.85940267918516</v>
+        <v>-19.86935282934488</v>
       </c>
       <c r="F15" t="n">
-        <v>7.101524193569962</v>
+        <v>7.020561392796727</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.121439830516533</v>
+        <v>-6.141955469069518</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.334516717779266</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.82878296619225</v>
+        <v>-20.83374494896926</v>
       </c>
       <c r="F16" t="n">
-        <v>7.000713461688671</v>
+        <v>6.927448934986372</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.511273056577889</v>
+        <v>-5.534524986424795</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.7398768224604402</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.9047738752395</v>
+        <v>-21.9046167676054</v>
       </c>
       <c r="F17" t="n">
-        <v>7.313200545914989</v>
+        <v>7.237919804575064</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.595482748455871</v>
+        <v>-5.611285157985835</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.1649782765806827</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.7636813108681</v>
+        <v>-22.7624899113095</v>
       </c>
       <c r="F18" t="n">
-        <v>7.697826218799217</v>
+        <v>7.619560432411379</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.053199564751577</v>
+        <v>-5.068936512767332</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3944436763170955</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.38463614234832</v>
+        <v>-23.38590609572397</v>
       </c>
       <c r="F19" t="n">
-        <v>8.008297088387909</v>
+        <v>7.928748256321581</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.190010946093736</v>
+        <v>-4.212542799284346</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9363705362493016</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.27497819709991</v>
+        <v>-24.27571136605904</v>
       </c>
       <c r="F20" t="n">
-        <v>8.219056979534015</v>
+        <v>8.141157777625745</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.752898231117028</v>
+        <v>-3.769211240457818</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.445901396289925</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.41013003933504</v>
+        <v>-24.418901882239</v>
       </c>
       <c r="F21" t="n">
-        <v>8.073706233385172</v>
+        <v>7.997221000183809</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.712141892370735</v>
+        <v>-3.728559640134259</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.910746817434802</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.08566668136243</v>
+        <v>-25.09663803114379</v>
       </c>
       <c r="F22" t="n">
-        <v>8.468412979457531</v>
+        <v>8.39127313111408</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.100760717621689</v>
+        <v>-4.107856745761905</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.310037793677075</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.22761342877242</v>
+        <v>-25.23902991685041</v>
       </c>
       <c r="F23" t="n">
-        <v>8.111124034906826</v>
+        <v>8.042886952495749</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.980534100626119</v>
+        <v>-3.986255436967953</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.634184300240127</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.63999478368111</v>
+        <v>-25.65162074860456</v>
       </c>
       <c r="F24" t="n">
-        <v>8.080618969285604</v>
+        <v>8.015812070219059</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.85614413132688</v>
+        <v>-3.85910299176911</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.871670801910313</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.6798084766228</v>
+        <v>-25.69994443839337</v>
       </c>
       <c r="F25" t="n">
-        <v>8.199654186722578</v>
+        <v>8.137832332703947</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.738012282785985</v>
+        <v>-3.743380126951093</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.025681819877466</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.00612103264998</v>
+        <v>-26.02268279574476</v>
       </c>
       <c r="F26" t="n">
-        <v>8.098686347207186</v>
+        <v>8.038147538867046</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.551970659405058</v>
+        <v>-3.555571042686533</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.101586964624468</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.97030049207502</v>
+        <v>-25.98499005586343</v>
       </c>
       <c r="F27" t="n">
-        <v>8.025997881829923</v>
+        <v>7.967920426424026</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.670167969460161</v>
+        <v>-3.670325077094262</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.115076351310473</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.9151033432943</v>
+        <v>-25.92833966146728</v>
       </c>
       <c r="F28" t="n">
-        <v>7.89604368382295</v>
+        <v>7.834824075735039</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.896965931587382</v>
+        <v>-3.889333119030655</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.082361438301976</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.7863667294516</v>
+        <v>-25.80461739961297</v>
       </c>
       <c r="F29" t="n">
-        <v>7.843674472456046</v>
+        <v>7.781669326197632</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.697138113314117</v>
+        <v>-3.694074514449153</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.022940911244396</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.66103411434776</v>
+        <v>-25.67918004608639</v>
       </c>
       <c r="F30" t="n">
-        <v>7.944249542886185</v>
+        <v>7.879337905396907</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.847097350063247</v>
+        <v>-3.843182751513571</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.955216399175989</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.3347608352291</v>
+        <v>-25.35454330482295</v>
       </c>
       <c r="F31" t="n">
-        <v>7.768498469538855</v>
+        <v>7.707671630536195</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.248664462824669</v>
+        <v>-4.238151343642762</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.894160130831422</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.90775537804621</v>
+        <v>-24.92934458543222</v>
       </c>
       <c r="F32" t="n">
-        <v>7.913613554236546</v>
+        <v>7.849566008734823</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.152894267537443</v>
+        <v>-4.150118699334997</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.850517314129009</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.76582172293906</v>
+        <v>-24.78263223978783</v>
       </c>
       <c r="F33" t="n">
-        <v>7.934404131149208</v>
+        <v>7.86737154059957</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.288150848195315</v>
+        <v>-4.28197128125402</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.827618673571036</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.37101023844397</v>
+        <v>-24.38685192488246</v>
       </c>
       <c r="F34" t="n">
-        <v>8.049852057607549</v>
+        <v>7.980803252420285</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.320868512996788</v>
+        <v>-4.317202668201105</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.824377218285404</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.21206968194541</v>
+        <v>-24.22681161494519</v>
       </c>
       <c r="F35" t="n">
-        <v>7.947077480299998</v>
+        <v>7.878054859718419</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.477491731892357</v>
+        <v>-4.474113917759191</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.833632503431625</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.86604011783859</v>
+        <v>-23.87889675922917</v>
       </c>
       <c r="F36" t="n">
-        <v>8.092637703294308</v>
+        <v>8.018404346181722</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.402106252129698</v>
+        <v>-4.402210990552432</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.845943542169993</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.27792078188542</v>
+        <v>-23.29220448428574</v>
       </c>
       <c r="F37" t="n">
-        <v>8.053648825431649</v>
+        <v>7.980986544660069</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.516703178903327</v>
+        <v>-4.514844071899802</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>2.850523970239883</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.78030853547709</v>
+        <v>-22.79426493030637</v>
       </c>
       <c r="F38" t="n">
-        <v>8.042834583284383</v>
+        <v>7.967056334436473</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.485307836688867</v>
+        <v>-4.487795374228796</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>2.835525492594136</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.59704248029861</v>
+        <v>-22.60743776875494</v>
       </c>
       <c r="F39" t="n">
-        <v>8.20656692262301</v>
+        <v>8.129950766393227</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.715876382034505</v>
+        <v>-4.716059674274289</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>2.793013179399279</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.89411674072634</v>
+        <v>-21.90705193593396</v>
       </c>
       <c r="F40" t="n">
-        <v>8.479436698450264</v>
+        <v>8.400804327582858</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.673313305496054</v>
+        <v>-4.675656827704723</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>2.715171345944084</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.21594854582777</v>
+        <v>-21.23209135523162</v>
       </c>
       <c r="F41" t="n">
-        <v>8.463935411885659</v>
+        <v>8.386036209977389</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.703425602032024</v>
+        <v>-4.704093309476952</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>2.601355324469679</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.51201469893668</v>
+        <v>-20.52760763162118</v>
       </c>
       <c r="F42" t="n">
-        <v>8.461238397500264</v>
+        <v>8.384491318242066</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.042869737809456</v>
+        <v>-5.041783076673592</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>2.450636502362542</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.67148885649787</v>
+        <v>-19.69259364867873</v>
       </c>
       <c r="F43" t="n">
-        <v>8.577628969763209</v>
+        <v>8.497870660851413</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.197097065284988</v>
+        <v>-5.196625742382687</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>2.268143729460361</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.98397275737031</v>
+        <v>-19.0066879028007</v>
       </c>
       <c r="F44" t="n">
-        <v>8.345319148139621</v>
+        <v>8.268126930584804</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.991731202909674</v>
+        <v>-4.994716247957587</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>2.058325543694737</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.51605385380702</v>
+        <v>-18.53422597015133</v>
       </c>
       <c r="F45" t="n">
-        <v>8.397505067266742</v>
+        <v>8.316254235830989</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.182054009319845</v>
+        <v>-5.181124455818082</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.82853134573865</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.84388193360996</v>
+        <v>-17.86289195733615</v>
       </c>
       <c r="F46" t="n">
-        <v>8.473676085199903</v>
+        <v>8.394441468401778</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.319064958558509</v>
+        <v>-5.317415328400451</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.585331488090507</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.69335972783864</v>
+        <v>-17.71007859856752</v>
       </c>
       <c r="F47" t="n">
-        <v>8.333012383468398</v>
+        <v>8.258019672790992</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.61406072618828</v>
+        <v>-5.61254201905864</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.334442605289044</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.05001705849906</v>
+        <v>-17.06763929812402</v>
       </c>
       <c r="F48" t="n">
-        <v>8.274411235948833</v>
+        <v>8.199863663568046</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.70788016835209</v>
+        <v>-5.706976799456011</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>1.081321981470288</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.18270436444607</v>
+        <v>-16.20437212564913</v>
       </c>
       <c r="F49" t="n">
-        <v>8.204655446408117</v>
+        <v>8.134245041725315</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.923641319183735</v>
+        <v>-5.921258520066541</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.8272724222955047</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.62666117045513</v>
+        <v>-15.64914065443437</v>
       </c>
       <c r="F50" t="n">
-        <v>7.952942831973091</v>
+        <v>7.88193018135957</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.155008495002718</v>
+        <v>-6.151093896453042</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5759640695843125</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.90905895939728</v>
+        <v>-14.9324418122726</v>
       </c>
       <c r="F51" t="n">
-        <v>7.778317696670149</v>
+        <v>7.711154183092095</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.098580669754879</v>
+        <v>-6.098921069628764</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3254018566605995</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.22162141408677</v>
+        <v>-14.25102672626928</v>
       </c>
       <c r="F52" t="n">
-        <v>7.645483192037997</v>
+        <v>7.580597739154402</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.266057407706239</v>
+        <v>-6.268217637675123</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.0785032016179773</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.73923551588337</v>
+        <v>-13.76564269071513</v>
       </c>
       <c r="F53" t="n">
-        <v>7.696464619303677</v>
+        <v>7.62943202875404</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.299887918249259</v>
+        <v>-6.304653516483647</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1671538743187732</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.29471255749825</v>
+        <v>-13.32159105523231</v>
       </c>
       <c r="F54" t="n">
-        <v>7.48099149913455</v>
+        <v>7.413880354767862</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.525114804035472</v>
+        <v>-6.52934361785335</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4076047912737608</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.70063622375208</v>
+        <v>-12.72823479814244</v>
       </c>
       <c r="F55" t="n">
-        <v>7.437237023037501</v>
+        <v>7.373739354255131</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.854896820315711</v>
+        <v>-6.854268389779308</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.6435301890306288</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.41196403839487</v>
+        <v>-12.4407147354353</v>
       </c>
       <c r="F56" t="n">
-        <v>7.484526420901816</v>
+        <v>7.419850444863689</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.805172254122835</v>
+        <v>-6.80741103790877</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.8700725510447126</v>
       </c>
       <c r="E57" t="n">
-        <v>-11.95658756095395</v>
+        <v>-11.98429087376704</v>
       </c>
       <c r="F57" t="n">
-        <v>7.127342214773845</v>
+        <v>7.066646298799603</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.047838087294227</v>
+        <v>-7.047694071962969</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.086806671494474</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.52926788850285</v>
+        <v>-11.55629040156817</v>
       </c>
       <c r="F58" t="n">
-        <v>7.284135633606357</v>
+        <v>7.218464642552259</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.806694144606354</v>
+        <v>-7.799585024163297</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.291320815291039</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.50873915764702</v>
+        <v>-11.5273695045908</v>
       </c>
       <c r="F59" t="n">
-        <v>7.136009319255068</v>
+        <v>7.073244819431833</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.809914851105418</v>
+        <v>-7.809482805111641</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.48303300133414</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.28258271835905</v>
+        <v>-11.30129161911988</v>
       </c>
       <c r="F60" t="n">
-        <v>6.987647343452629</v>
+        <v>6.924725735995293</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.050734669576128</v>
+        <v>-8.047042640174761</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.661140413377011</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.33432349918955</v>
+        <v>-11.3479264018421</v>
       </c>
       <c r="F61" t="n">
-        <v>6.815588299506665</v>
+        <v>6.754394876024437</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.516257681719381</v>
+        <v>-8.509672253389994</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.824503549397254</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.42100763630462</v>
+        <v>-11.43081377113307</v>
       </c>
       <c r="F62" t="n">
-        <v>6.848423795033714</v>
+        <v>6.782831357796666</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.750439702649336</v>
+        <v>-8.741968982710739</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.973924747085921</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.0655647064546</v>
+        <v>-11.07365574961078</v>
       </c>
       <c r="F63" t="n">
-        <v>7.173688966833556</v>
+        <v>7.103461854390537</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.796655531680628</v>
+        <v>-8.789664241963147</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.107602568620444</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.80754160204986</v>
+        <v>-10.81912829006479</v>
       </c>
       <c r="F64" t="n">
-        <v>7.016162379041908</v>
+        <v>6.947872927419465</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.035576966239288</v>
+        <v>-9.020363710337202</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.226648449504734</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.82863330192788</v>
+        <v>-10.84125428186731</v>
       </c>
       <c r="F65" t="n">
-        <v>6.989742111907304</v>
+        <v>6.92105989119961</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.100396957608673</v>
+        <v>-9.084633824987236</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.328694162626832</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.54343057682372</v>
+        <v>-10.55877475575422</v>
       </c>
       <c r="F66" t="n">
-        <v>6.816609499128319</v>
+        <v>6.749315062521847</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.49222339705585</v>
+        <v>-9.472323096736428</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.415248584011578</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.77617244444109</v>
+        <v>-10.78922547037429</v>
       </c>
       <c r="F67" t="n">
-        <v>6.574480450373438</v>
+        <v>6.50820721338862</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.543663054920993</v>
+        <v>-9.522257139774771</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.485252947855496</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.93258618649119</v>
+        <v>-10.94052012201327</v>
       </c>
       <c r="F68" t="n">
-        <v>6.54439433844315</v>
+        <v>6.476628578934377</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.367676320122511</v>
+        <v>-9.346348958793339</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.540419473307331</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.7380869354745</v>
+        <v>-10.74585067105965</v>
       </c>
       <c r="F69" t="n">
-        <v>6.532270866011713</v>
+        <v>6.464505106502938</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.370255503782332</v>
+        <v>-9.347802204408771</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.58178400577067</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.99743236246626</v>
+        <v>-11.00153025325572</v>
       </c>
       <c r="F70" t="n">
-        <v>6.329549648810426</v>
+        <v>6.264219057630213</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.488518275351643</v>
+        <v>-9.461521946892004</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.61159526904624</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.95565482409831</v>
+        <v>-10.96191294485665</v>
       </c>
       <c r="F71" t="n">
-        <v>5.98878319044598</v>
+        <v>5.926647121159148</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.456926548594558</v>
+        <v>-9.429576727958192</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.632273982170323</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.99061127268572</v>
+        <v>-10.99846665439075</v>
       </c>
       <c r="F72" t="n">
-        <v>6.231069346834962</v>
+        <v>6.163041741269354</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.739903582215625</v>
+        <v>-9.704907856719691</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.645240896131635</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.4268991725834</v>
+        <v>-11.43352387782131</v>
       </c>
       <c r="F73" t="n">
-        <v>6.352330255755029</v>
+        <v>6.282783943059781</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.464546268848443</v>
+        <v>-9.434447064615314</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.652526325250222</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.55744252421825</v>
+        <v>-11.56689516686997</v>
       </c>
       <c r="F74" t="n">
-        <v>6.307004703316974</v>
+        <v>6.239684082104819</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.542942978264698</v>
+        <v>-9.510788282485418</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.65485339219431</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.08646320514387</v>
+        <v>-12.09175249549193</v>
       </c>
       <c r="F75" t="n">
-        <v>6.266235272267838</v>
+        <v>6.198050559068129</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.716978959939762</v>
+        <v>-9.676628482581563</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.653649430029665</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.98367553553348</v>
+        <v>-11.99392680865855</v>
       </c>
       <c r="F76" t="n">
-        <v>6.156495589848491</v>
+        <v>6.08959392232727</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.765957264870661</v>
+        <v>-9.722713388584438</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.647815191889392</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.68284378419018</v>
+        <v>-12.68760938242457</v>
       </c>
       <c r="F77" t="n">
-        <v>6.117244865928996</v>
+        <v>6.052568889890869</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.517727202991534</v>
+        <v>-9.47393344998596</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.634358853878383</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.37902698779896</v>
+        <v>-13.38394969366745</v>
       </c>
       <c r="F78" t="n">
-        <v>6.176238782533813</v>
+        <v>6.109284745801227</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.897138955990876</v>
+        <v>-8.862156322797784</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.608205745651277</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.63547901586269</v>
+        <v>-13.646620565581</v>
       </c>
       <c r="F79" t="n">
-        <v>6.372649509765388</v>
+        <v>6.300170521233593</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.118385781713204</v>
+        <v>-9.073492275268926</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.561952827211486</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.23064201074472</v>
+        <v>-14.24033031484759</v>
       </c>
       <c r="F80" t="n">
-        <v>6.374953755065532</v>
+        <v>6.303103197070139</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.532191014277762</v>
+        <v>-8.493031936478159</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.488811850073249</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.82297706821293</v>
+        <v>-14.82902571212581</v>
       </c>
       <c r="F81" t="n">
-        <v>6.477571224738981</v>
+        <v>6.402107191159272</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.390309728381977</v>
+        <v>-8.348780943768022</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.379596848376075</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.66908023166232</v>
+        <v>-15.67632027513379</v>
       </c>
       <c r="F82" t="n">
-        <v>6.494041341713872</v>
+        <v>6.418812969585314</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.284235890758312</v>
+        <v>-8.240363583935688</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.230041549521226</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.68815890025659</v>
+        <v>-16.69268883703983</v>
       </c>
       <c r="F83" t="n">
-        <v>6.664215094050627</v>
+        <v>6.585792200028688</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.149123325431699</v>
+        <v>-8.102972957914615</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.034051194361522</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.60430588390922</v>
+        <v>-17.60832522088162</v>
       </c>
       <c r="F84" t="n">
-        <v>6.614202497195234</v>
+        <v>6.532323235223079</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.795500225676678</v>
+        <v>-7.75334301052632</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.793009394362938</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.45349883082925</v>
+        <v>-18.4637108270458</v>
       </c>
       <c r="F85" t="n">
-        <v>6.818023467835226</v>
+        <v>6.736929744033574</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.565808864621435</v>
+        <v>-7.527186571238344</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.507004504279482</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.72909498900146</v>
+        <v>-19.74081260004481</v>
       </c>
       <c r="F86" t="n">
-        <v>6.690268776705663</v>
+        <v>6.608913206847177</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.597099468413161</v>
+        <v>-7.553672299887156</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.183822936005465</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.77867872321696</v>
+        <v>-20.79154845691038</v>
       </c>
       <c r="F87" t="n">
-        <v>6.774452283977961</v>
+        <v>6.689980746043145</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.063038250893471</v>
+        <v>-7.025908480034336</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.8317910797478864</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.11474822821511</v>
+        <v>-22.13030188399108</v>
       </c>
       <c r="F88" t="n">
-        <v>7.07973860164133</v>
+        <v>6.994507710141693</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.126562104281526</v>
+        <v>-7.091304532728758</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.4646674773020764</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.76613275485338</v>
+        <v>-23.77744450450863</v>
       </c>
       <c r="F89" t="n">
-        <v>6.919645922492704</v>
+        <v>6.832346447144074</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.804137962198339</v>
+        <v>-6.772336758595785</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.09753206810605575</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.01179990872941</v>
+        <v>-25.03211916273976</v>
       </c>
       <c r="F90" t="n">
-        <v>7.213122982992835</v>
+        <v>7.124461908148666</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.202994968271523</v>
+        <v>-7.166532904857316</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2541925207457682</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.74785235784513</v>
+        <v>-26.7671111353253</v>
       </c>
       <c r="F91" t="n">
-        <v>7.315740452666284</v>
+        <v>7.22089981088082</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.740483185781867</v>
+        <v>-6.712714411454566</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.5752087712111024</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.7357221598186</v>
+        <v>-28.75195661534234</v>
       </c>
       <c r="F92" t="n">
-        <v>7.030380619928023</v>
+        <v>6.940488868616732</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.994185830248834</v>
+        <v>-6.963274903239519</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.8565711117657933</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.59920199249284</v>
+        <v>-30.61294891047665</v>
       </c>
       <c r="F93" t="n">
-        <v>7.065756022206366</v>
+        <v>6.971491441745939</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.270181483101382</v>
+        <v>-6.250752505684261</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>1.090452462635457</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.58188724254099</v>
+        <v>-32.59436420714916</v>
       </c>
       <c r="F94" t="n">
-        <v>7.02323222257644</v>
+        <v>6.933864163378818</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.622861937051799</v>
+        <v>-6.601181083545901</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>1.279814260780446</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.91975357638233</v>
+        <v>-34.92640446622593</v>
       </c>
       <c r="F95" t="n">
-        <v>6.987464051212845</v>
+        <v>6.897362823056086</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.999432660334487</v>
+        <v>-5.991524909418085</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>1.426167422076732</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.34964570689817</v>
+        <v>-37.35269621346029</v>
       </c>
       <c r="F96" t="n">
-        <v>6.745387371669329</v>
+        <v>6.654343497707966</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.93338199249798</v>
+        <v>-5.928105794452764</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>1.540503092024969</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.32858655833359</v>
+        <v>-39.33353544880777</v>
       </c>
       <c r="F97" t="n">
-        <v>6.67932361152998</v>
+        <v>6.590374506023292</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.522899021501342</v>
+        <v>-5.525137805287277</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>1.62965873185054</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.74470558625993</v>
+        <v>-41.74936644607158</v>
       </c>
       <c r="F98" t="n">
-        <v>6.60438327006394</v>
+        <v>6.512632411749124</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.708770444945327</v>
+        <v>-5.710603367343168</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>1.709217786192712</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.10827211057958</v>
+        <v>-44.11293297039123</v>
       </c>
       <c r="F99" t="n">
-        <v>6.433450164162364</v>
+        <v>6.343087089948771</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.450590232906489</v>
+        <v>-5.457358953475661</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>1.78645379518021</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.23074387806884</v>
+        <v>-46.23858616747103</v>
       </c>
       <c r="F100" t="n">
-        <v>6.167466939629858</v>
+        <v>6.081214848508566</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.512294256199544</v>
+        <v>-5.517937038724328</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.875844460302805</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.66152628517791</v>
+        <v>-48.66373888435816</v>
       </c>
       <c r="F101" t="n">
-        <v>6.139868365239499</v>
+        <v>6.050840705915761</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.526512497085658</v>
+        <v>-5.536475739548212</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>1.976569420943449</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.13060367809903</v>
+        <v>-51.13032873973935</v>
       </c>
       <c r="F102" t="n">
-        <v>5.416754294685284</v>
+        <v>5.337598231704209</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.216866442575995</v>
+        <v>-5.231713113998512</v>
       </c>
     </row>
   </sheetData>
